--- a/data/trans_dic/P32E$amigos_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32E$amigos_2023-Habitat-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -874,7 +874,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$amigos_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32E$amigos_2023-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1310482730045346</v>
+        <v>0.1317474779987956</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1336259793502114</v>
+        <v>0.1398919643147938</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5464643890262286</v>
+        <v>0.548586677930475</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4582506780570453</v>
+        <v>0.5216324736089593</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4821038968706848</v>
+        <v>0.4951428371296525</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.121792307557596</v>
+        <v>0.1291783119205467</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1576924594660652</v>
+        <v>0.1376023794159191</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1734911321733626</v>
+        <v>0.1666152726969141</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4912844703259556</v>
+        <v>0.5093730739403654</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5699555532427539</v>
+        <v>0.5421383169166017</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4553568383960436</v>
+        <v>0.4505887874986337</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05189356990090534</v>
+        <v>0.04344711576267624</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05942059456501904</v>
+        <v>0.05765304507612395</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3164771596108679</v>
+        <v>0.31001096945902</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7305996873382501</v>
+        <v>0.6804202922174357</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2992015137357542</v>
+        <v>0.3188693199153309</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1163103479448888</v>
+        <v>0.1221034496476026</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03543946079984506</v>
+        <v>0.03108047865930304</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1180524091737008</v>
+        <v>0.1081206013332434</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3707169396359243</v>
+        <v>0.3791222062320267</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4913912155739004</v>
+        <v>0.4585581215822675</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3485806318944596</v>
+        <v>0.331866092216391</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.2302954889663085</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2345426558365788</v>
+        <v>0.2345426558365789</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1575765604777465</v>
+        <v>0.1653606973644928</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1339826548733907</v>
+        <v>0.12863137435468</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1698232694609911</v>
+        <v>0.1727863487355024</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3338082151575512</v>
+        <v>0.3383738396584019</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3657872226734415</v>
+        <v>0.3710113888716917</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3103814188188403</v>
+        <v>0.3094078430650751</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4584</v>
+        <v>4608</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6157</v>
+        <v>6446</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19115</v>
+        <v>19189</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5085</v>
+        <v>5788</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22213</v>
+        <v>22814</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4732</v>
+        <v>5018</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3973</v>
+        <v>3467</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11111</v>
+        <v>10670</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19086</v>
+        <v>19789</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14359</v>
+        <v>13658</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>29162</v>
+        <v>28857</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1564</v>
+        <v>1309</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2162</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9537</v>
+        <v>9342</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4565</v>
+        <v>4251</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10886</v>
+        <v>11602</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6690</v>
+        <v>7023</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>767</v>
+        <v>673</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9346</v>
+        <v>8560</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>21323</v>
+        <v>21806</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10638</v>
+        <v>9927</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>27596</v>
+        <v>26273</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>25446</v>
+        <v>26703</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8600</v>
+        <v>8256</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>38324</v>
+        <v>38992</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>53904</v>
+        <v>54641</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23478</v>
+        <v>23814</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>70043</v>
+        <v>69823</v>
       </c>
     </row>
     <row r="24">
